--- a/uab-meto/aoz.xlsx
+++ b/uab-meto/aoz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6887" uniqueCount="6771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="6791">
   <si>
     <t>Ujian akan mulai minggu depan.</t>
   </si>
@@ -20327,6 +20327,66 @@
   </si>
   <si>
     <t>Ho skola lunan sa, Tom?</t>
+  </si>
+  <si>
+    <t>Noka lei au he nao neu museum.</t>
+  </si>
+  <si>
+    <t>No kai au he nao neu museum.</t>
+  </si>
+  <si>
+    <t>Na Tom he nao  neo Jepang.</t>
+  </si>
+  <si>
+    <t>Na Tom nekan an ma ten neu he nao.</t>
+  </si>
+  <si>
+    <t>Na maet na Tom neno tekan meut.</t>
+  </si>
+  <si>
+    <t>Na Tom naim a tolon.</t>
+  </si>
+  <si>
+    <t>Bi Mary os an lol na Tom.</t>
+  </si>
+  <si>
+    <t>Na Tom an meup nok amaf.</t>
+  </si>
+  <si>
+    <t>Nok at in neon mahonit.</t>
+  </si>
+  <si>
+    <t>Haim toit the na ko India.</t>
+  </si>
+  <si>
+    <t>Hai nafatam muit tabu teun.</t>
+  </si>
+  <si>
+    <t>Hai mi uab am nao telepon.</t>
+  </si>
+  <si>
+    <t>Na tetefa tein, Tom.</t>
+  </si>
+  <si>
+    <t>Hai mes am pao ko.</t>
+  </si>
+  <si>
+    <t>Hi tapein lasi naek.</t>
+  </si>
+  <si>
+    <t>Hai kamuif loit.</t>
+  </si>
+  <si>
+    <t>Koe nok tem neo San Fransisko.</t>
+  </si>
+  <si>
+    <t>Ho moe sa?</t>
+  </si>
+  <si>
+    <t>Ho main neo sa?</t>
+  </si>
+  <si>
+    <t>Ho maim sa?</t>
   </si>
 </sst>
 </file>
@@ -20928,15 +20988,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2352" sqref="C2352"/>
+    <sheetView tabSelected="1" topLeftCell="A3013" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3021" sqref="C3021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -51157,35 +51217,45 @@
       <c r="B3000" s="23" t="s">
         <v>4908</v>
       </c>
-      <c r="C3000" s="25"/>
+      <c r="C3000" s="25" t="s">
+        <v>6773</v>
+      </c>
     </row>
     <row r="3001" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3001" s="24"/>
       <c r="B3001" s="23" t="s">
         <v>4909</v>
       </c>
-      <c r="C3001" s="25"/>
+      <c r="C3001" s="25" t="s">
+        <v>6774</v>
+      </c>
     </row>
     <row r="3002" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3002" s="24"/>
-      <c r="B3002" s="23" t="s">
+      <c r="A3002" s="34"/>
+      <c r="B3002" s="28" t="s">
         <v>4910</v>
       </c>
-      <c r="C3002" s="25"/>
+      <c r="C3002" s="29" t="s">
+        <v>6775</v>
+      </c>
     </row>
     <row r="3003" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3003" s="24"/>
       <c r="B3003" s="23" t="s">
         <v>4911</v>
       </c>
-      <c r="C3003" s="25"/>
+      <c r="C3003" s="25" t="s">
+        <v>6776</v>
+      </c>
     </row>
     <row r="3004" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3004" s="24"/>
-      <c r="B3004" s="23" t="s">
+      <c r="A3004" s="34"/>
+      <c r="B3004" s="28" t="s">
         <v>4912</v>
       </c>
-      <c r="C3004" s="25"/>
+      <c r="C3004" s="29" t="s">
+        <v>6777</v>
+      </c>
     </row>
     <row r="3005" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3005" s="24"/>
@@ -51199,28 +51269,36 @@
       <c r="B3006" s="23" t="s">
         <v>4914</v>
       </c>
-      <c r="C3006" s="25"/>
+      <c r="C3006" s="25" t="s">
+        <v>6778</v>
+      </c>
     </row>
     <row r="3007" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3007" s="24"/>
       <c r="B3007" s="23" t="s">
         <v>4915</v>
       </c>
-      <c r="C3007" s="25"/>
+      <c r="C3007" s="25" t="s">
+        <v>6779</v>
+      </c>
     </row>
     <row r="3008" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3008" s="24"/>
       <c r="B3008" s="23" t="s">
         <v>4916</v>
       </c>
-      <c r="C3008" s="25"/>
+      <c r="C3008" s="25" t="s">
+        <v>6780</v>
+      </c>
     </row>
     <row r="3009" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3009" s="24"/>
-      <c r="B3009" s="23" t="s">
+      <c r="A3009" s="34"/>
+      <c r="B3009" s="28" t="s">
         <v>4917</v>
       </c>
-      <c r="C3009" s="25"/>
+      <c r="C3009" s="29" t="s">
+        <v>6781</v>
+      </c>
     </row>
     <row r="3010" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3010" s="24"/>
@@ -51234,70 +51312,90 @@
       <c r="B3011" s="23" t="s">
         <v>4919</v>
       </c>
-      <c r="C3011" s="25"/>
+      <c r="C3011" s="25" t="s">
+        <v>6782</v>
+      </c>
     </row>
     <row r="3012" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3012" s="24"/>
-      <c r="B3012" s="23" t="s">
+      <c r="A3012" s="34"/>
+      <c r="B3012" s="28" t="s">
         <v>4920</v>
       </c>
-      <c r="C3012" s="25"/>
+      <c r="C3012" s="29" t="s">
+        <v>6783</v>
+      </c>
     </row>
     <row r="3013" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3013" s="24"/>
       <c r="B3013" s="23" t="s">
         <v>4921</v>
       </c>
-      <c r="C3013" s="25"/>
+      <c r="C3013" s="25" t="s">
+        <v>6784</v>
+      </c>
     </row>
     <row r="3014" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3014" s="24"/>
       <c r="B3014" s="23" t="s">
         <v>4922</v>
       </c>
-      <c r="C3014" s="25"/>
+      <c r="C3014" s="25" t="s">
+        <v>6785</v>
+      </c>
     </row>
     <row r="3015" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3015" s="24"/>
       <c r="B3015" s="23" t="s">
         <v>4923</v>
       </c>
-      <c r="C3015" s="25"/>
+      <c r="C3015" s="25" t="s">
+        <v>6785</v>
+      </c>
     </row>
     <row r="3016" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3016" s="24"/>
       <c r="B3016" s="23" t="s">
         <v>4924</v>
       </c>
-      <c r="C3016" s="25"/>
+      <c r="C3016" s="25" t="s">
+        <v>6786</v>
+      </c>
     </row>
     <row r="3017" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3017" s="24"/>
       <c r="B3017" s="23" t="s">
         <v>4925</v>
       </c>
-      <c r="C3017" s="25"/>
+      <c r="C3017" s="25" t="s">
+        <v>6787</v>
+      </c>
     </row>
     <row r="3018" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3018" s="24"/>
       <c r="B3018" s="23" t="s">
         <v>4926</v>
       </c>
-      <c r="C3018" s="25"/>
+      <c r="C3018" s="25" t="s">
+        <v>6788</v>
+      </c>
     </row>
     <row r="3019" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3019" s="24"/>
       <c r="B3019" s="23" t="s">
         <v>4927</v>
       </c>
-      <c r="C3019" s="25"/>
+      <c r="C3019" s="25" t="s">
+        <v>6789</v>
+      </c>
     </row>
     <row r="3020" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3020" s="24"/>
       <c r="B3020" s="23" t="s">
         <v>4928</v>
       </c>
-      <c r="C3020" s="25"/>
+      <c r="C3020" s="25" t="s">
+        <v>6790</v>
+      </c>
     </row>
     <row r="3021" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3021" s="24"/>
@@ -52856,7 +52954,9 @@
       <c r="B3197" s="23" t="s">
         <v>5105</v>
       </c>
-      <c r="C3197" s="25"/>
+      <c r="C3197" s="25" t="s">
+        <v>6771</v>
+      </c>
     </row>
     <row r="3198" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3198" s="24"/>
@@ -52890,7 +52990,9 @@
       <c r="B3201" s="23" t="s">
         <v>5109</v>
       </c>
-      <c r="C3201" s="25"/>
+      <c r="C3201" s="25" t="s">
+        <v>6772</v>
+      </c>
     </row>
     <row r="3202" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3202" s="24"/>
